--- a/Gergo_Ferenczy/AfterTrainingExcercise/biz_pricingV2.0.xlsx
+++ b/Gergo_Ferenczy/AfterTrainingExcercise/biz_pricingV2.0.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gergo\Desktop\AfterTrainingExcercise\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gergo\Documents\Git repos\Training_sandbox\Gergo_Ferenczy\AfterTrainingExcercise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3150055-C18A-40E9-B9BE-BB810A4A37CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{866347B7-F84A-4E4E-AC53-B877284E0C51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-57720" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pricing" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
   <si>
     <t>vehicle factor</t>
   </si>
@@ -107,7 +107,43 @@
     <t>Type of use</t>
   </si>
   <si>
-    <t>IF(C3=1,0.1,IF(E3=2,0.2,))</t>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>Personal</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>Used</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>Gasoline</t>
+  </si>
+  <si>
+    <t>Petrol</t>
+  </si>
+  <si>
+    <t>Natural Gas</t>
+  </si>
+  <si>
+    <t>Electric</t>
+  </si>
+  <si>
+    <t>?</t>
   </si>
 </sst>
 </file>
@@ -185,7 +221,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -207,8 +243,14 @@
         <fgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -275,6 +317,68 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -285,7 +389,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="3"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyAlignment="1">
@@ -299,6 +403,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="6"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="6" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Calculation" xfId="4" builtinId="22"/>
@@ -632,10 +742,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:N15"/>
+  <dimension ref="B2:P20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -649,6 +759,7 @@
     <col min="8" max="8" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="26.33203125" bestFit="1" customWidth="1"/>
     <col min="12" max="14" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -801,11 +912,8 @@
         <f>((2018-B3)/50)+IF(C3=1,0.1,IF(E3=2,0.2,))+IF(D3=0,0.2,0.3)+IF(E3="G",0.2,IF(E3="P",0.1,IF(E3="N",0.15,IF(E3="E",0.25,))))</f>
         <v>0.86</v>
       </c>
-      <c r="D11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="2:14" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="5" t="s">
         <v>1</v>
       </c>
@@ -818,18 +926,83 @@
       <c r="K13" t="s">
         <v>22</v>
       </c>
-      <c r="L13" t="s">
+      <c r="L13" s="9" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="L14" t="s">
+      <c r="M13" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="N13" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L14" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="M14" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="N14" s="14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="L16" s="9" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="L15" t="s">
+      <c r="M16" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="N16" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="12:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L17" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="M17" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="N17" s="14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="12:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="19" spans="12:16" x14ac:dyDescent="0.3">
+      <c r="L19" s="9" t="s">
         <v>6</v>
+      </c>
+      <c r="M19" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="N19" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="O19" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="P19" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="12:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L20" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="M20" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="N20" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="O20" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="P20" s="14" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -842,21 +1015,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokumentum" ma:contentTypeID="0x01010099CDED3ECB2B4843831D8747C02ED9CF" ma:contentTypeVersion="10" ma:contentTypeDescription="Új dokumentum létrehozása." ma:contentTypeScope="" ma:versionID="76a815337efc6a58b2e8bd6b7d520bd1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ffabfc81-e8aa-46c0-b37e-f3d37c1335ad" xmlns:ns3="c1503785-5146-4d31-9a3a-ab405e6c3296" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ae8f8b2acb53c9f89b3f048a00ead611" ns2:_="" ns3:_="">
     <xsd:import namespace="ffabfc81-e8aa-46c0-b37e-f3d37c1335ad"/>
@@ -1059,32 +1217,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DB9DE6E5-223C-4942-81EB-6CE82110EEA9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="c1503785-5146-4d31-9a3a-ab405e6c3296"/>
-    <ds:schemaRef ds:uri="ffabfc81-e8aa-46c0-b37e-f3d37c1335ad"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81C3500B-5B04-4CC7-AB8D-AFAC94BC70F0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A07D0617-CEE1-4E18-9D77-03E633BA8470}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1101,4 +1249,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81C3500B-5B04-4CC7-AB8D-AFAC94BC70F0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DB9DE6E5-223C-4942-81EB-6CE82110EEA9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="c1503785-5146-4d31-9a3a-ab405e6c3296"/>
+    <ds:schemaRef ds:uri="ffabfc81-e8aa-46c0-b37e-f3d37c1335ad"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>